--- a/Country_Data/Serbia Inbound Travel and Bednight Data.xlsx
+++ b/Country_Data/Serbia Inbound Travel and Bednight Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8D113-8363-44A1-9650-5594C52BF0C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D79FB8-4F5C-4BB4-AD20-8941BD60E52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>3. Foreign tourist arrivals and overnight stays, by countries of tourists' origin</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Overnight stays</t>
-  </si>
-  <si>
-    <t>XII 2019</t>
-  </si>
-  <si>
-    <t>I-XII 2019</t>
   </si>
   <si>
     <t>indices</t>
@@ -199,6 +193,18 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Dec_2019</t>
+  </si>
+  <si>
+    <t>Jan-Dec_2019</t>
+  </si>
+  <si>
+    <t>Bed_Dec_2019</t>
+  </si>
+  <si>
+    <t>Bed_Jan-Dec_2019</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -341,19 +347,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -377,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -412,32 +405,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,24 +646,24 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -683,73 +671,69 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="15"/>
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I5" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>138915</v>
@@ -778,7 +762,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
         <v>2573</v>
@@ -807,7 +791,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>561</v>
@@ -836,7 +820,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>271</v>
@@ -865,7 +849,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>10192</v>
@@ -894,7 +878,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>17052</v>
@@ -923,7 +907,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>12714</v>
@@ -952,7 +936,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>382</v>
@@ -981,7 +965,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>122</v>
@@ -1010,7 +994,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7">
         <v>42</v>
@@ -1039,7 +1023,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3506</v>
@@ -1068,7 +1052,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
         <v>78</v>
@@ -1097,7 +1081,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7">
         <v>2368</v>
@@ -1126,7 +1110,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7">
         <v>4759</v>
@@ -1155,7 +1139,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>312</v>
@@ -1184,7 +1168,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7">
         <v>1210</v>
@@ -1213,7 +1197,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7">
         <v>196</v>
@@ -1242,7 +1226,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7">
         <v>9229</v>
@@ -1271,7 +1255,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7">
         <v>6675</v>
@@ -1300,7 +1284,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>3637</v>
@@ -1329,7 +1313,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="7">
         <v>665</v>
@@ -1358,7 +1342,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>9347</v>
@@ -1387,7 +1371,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="7">
         <v>4883</v>
@@ -1416,7 +1400,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7">
         <v>1454</v>
@@ -1445,7 +1429,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7">
         <v>622</v>
@@ -1474,7 +1458,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7">
         <v>127</v>
@@ -1503,7 +1487,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7">
         <v>1692</v>
@@ -1532,7 +1516,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7">
         <v>1118</v>
@@ -1561,7 +1545,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7">
         <v>10681</v>
@@ -1590,7 +1574,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7">
         <v>6723</v>
@@ -1619,7 +1603,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7">
         <v>1081</v>
@@ -1648,7 +1632,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7">
         <v>2511</v>
@@ -1677,7 +1661,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7">
         <v>1001</v>
@@ -1706,7 +1690,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7">
         <v>582</v>
@@ -1735,7 +1719,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7">
         <v>2707</v>
@@ -1764,7 +1748,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7">
         <v>84</v>
@@ -1793,7 +1777,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7">
         <v>307</v>
@@ -1822,7 +1806,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7">
         <v>1661</v>
@@ -1851,7 +1835,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7">
         <v>173</v>
@@ -1880,7 +1864,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7">
         <v>2115</v>
@@ -1909,7 +1893,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7">
         <v>765</v>
@@ -1938,7 +1922,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7">
         <v>41</v>
@@ -1967,7 +1951,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="7">
         <v>303</v>
@@ -1996,7 +1980,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7">
         <v>156</v>
@@ -2025,7 +2009,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7">
         <v>7680</v>
@@ -2054,7 +2038,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="7">
         <v>326</v>
@@ -2083,7 +2067,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7">
         <v>503</v>
@@ -2112,7 +2096,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7">
         <v>45</v>
@@ -2141,7 +2125,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7">
         <v>3683</v>
@@ -2203,7 +2187,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2215,17 +2199,13 @@
       <c r="I58" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="6">
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
